--- a/May 2019 to Jun 2019 - Cord Cutting Wizard - Change Log.xlsx
+++ b/May 2019 to Jun 2019 - Cord Cutting Wizard - Change Log.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7CD4B1FC-27D8-4013-B779-D6C874E231E2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05894B71-6DFB-4FDA-AB2C-20415C7F1D64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="May 2019 to Jun 2019 - Cord Cut" sheetId="1" r:id="rId1"/>
+    <sheet name="May 2019 to Jun 2019" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'May 2019 to Jun 2019 - Cord Cut'!$A$1:$E$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'May 2019 to Jun 2019'!$A$1:$E$101</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -367,12 +367,6 @@
     <t>Service</t>
   </si>
   <si>
-    <t>May 2019</t>
-  </si>
-  <si>
-    <t>Jun 2019</t>
-  </si>
-  <si>
     <t>Added a new Alias for this network</t>
   </si>
   <si>
@@ -386,12 +380,18 @@
   </si>
   <si>
     <t>Added this Network as a new Network to the database</t>
+  </si>
+  <si>
+    <t>Old Value</t>
+  </si>
+  <si>
+    <t>New Value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -877,8 +877,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="17" fontId="0" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="16" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1233,22 +1233,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="13" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.3828125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.84375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.3046875" customWidth="1"/>
+    <col min="4" max="4" width="33.07421875" customWidth="1"/>
     <col min="5" max="5" width="67.69140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1260,10 +1258,10 @@
         <v>113</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -1280,7 +1278,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -1294,298 +1292,301 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
-        <v>105</v>
+      <c r="C5" t="s">
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
-        <v>106</v>
+      <c r="C6" t="s">
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
-        <v>108</v>
+      <c r="C8" t="s">
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="E13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="E14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="E15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>35</v>
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="E18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>103</v>
       </c>
       <c r="E19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E24" t="s">
         <v>117</v>
@@ -1593,13 +1594,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="E25" t="s">
         <v>117</v>
@@ -1607,13 +1611,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
         <v>117</v>
@@ -1621,7 +1628,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
@@ -1630,40 +1637,40 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
       </c>
-      <c r="D28" t="s">
+      <c r="C28" t="s">
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
         <v>2</v>
       </c>
-      <c r="D29" t="s">
+      <c r="C29" t="s">
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
         <v>2</v>
@@ -1672,54 +1679,54 @@
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
         <v>2</v>
       </c>
-      <c r="D31" t="s">
+      <c r="C31" t="s">
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
         <v>2</v>
       </c>
-      <c r="D32" t="s">
+      <c r="C32" t="s">
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B33" t="s">
         <v>2</v>
       </c>
-      <c r="D33" t="s">
+      <c r="C33" t="s">
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
         <v>2</v>
@@ -1728,26 +1735,26 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
       </c>
-      <c r="D35" t="s">
+      <c r="C35" t="s">
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
         <v>2</v>
@@ -1756,12 +1763,12 @@
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
         <v>2</v>
@@ -1770,12 +1777,12 @@
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="B38" t="s">
         <v>2</v>
@@ -1784,12 +1791,12 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="B39" t="s">
         <v>2</v>
@@ -1798,26 +1805,26 @@
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="B40" t="s">
         <v>2</v>
       </c>
-      <c r="D40" t="s">
+      <c r="C40" t="s">
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="B41" t="s">
         <v>2</v>
@@ -1826,40 +1833,40 @@
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="B42" t="s">
         <v>2</v>
       </c>
-      <c r="D42" t="s">
+      <c r="C42" t="s">
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="B43" t="s">
         <v>2</v>
       </c>
-      <c r="D43" t="s">
+      <c r="C43" t="s">
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="B44" t="s">
         <v>2</v>
@@ -1868,12 +1875,12 @@
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="B45" t="s">
         <v>2</v>
@@ -1882,12 +1889,12 @@
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="B46" t="s">
         <v>2</v>
@@ -1896,12 +1903,12 @@
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="B47" t="s">
         <v>2</v>
@@ -1910,12 +1917,12 @@
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="B48" t="s">
         <v>2</v>
@@ -1924,12 +1931,12 @@
         <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="B49" t="s">
         <v>2</v>
@@ -1938,12 +1945,12 @@
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="B50" t="s">
         <v>2</v>
@@ -1952,12 +1959,12 @@
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="B51" t="s">
         <v>2</v>
@@ -1966,12 +1973,12 @@
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="B52" t="s">
         <v>2</v>
@@ -1980,12 +1987,12 @@
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="B53" t="s">
         <v>2</v>
@@ -1994,12 +2001,12 @@
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="B54" t="s">
         <v>2</v>
@@ -2008,12 +2015,12 @@
         <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="B55" t="s">
         <v>2</v>
@@ -2022,12 +2029,12 @@
         <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
         <v>2</v>
@@ -2036,12 +2043,12 @@
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="B57" t="s">
         <v>2</v>
@@ -2050,40 +2057,40 @@
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="B58" t="s">
         <v>2</v>
       </c>
-      <c r="D58" t="s">
+      <c r="C58" t="s">
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="B59" t="s">
         <v>2</v>
       </c>
-      <c r="D59" t="s">
+      <c r="C59" t="s">
         <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="B60" t="s">
         <v>2</v>
@@ -2092,54 +2099,54 @@
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="B61" t="s">
         <v>2</v>
       </c>
-      <c r="D61" t="s">
+      <c r="C61" t="s">
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="B62" t="s">
         <v>2</v>
       </c>
-      <c r="D62" t="s">
+      <c r="C62" t="s">
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="B63" t="s">
         <v>2</v>
       </c>
-      <c r="D63" t="s">
+      <c r="C63" t="s">
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="B64" t="s">
         <v>2</v>
@@ -2148,12 +2155,12 @@
         <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="B65" t="s">
         <v>2</v>
@@ -2162,189 +2169,180 @@
         <v>3</v>
       </c>
       <c r="E65" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="B66" t="s">
         <v>2</v>
       </c>
-      <c r="D66" t="s">
+      <c r="C66" t="s">
         <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>79</v>
-      </c>
-      <c r="D67" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" t="s">
         <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C68" t="s">
-        <v>40</v>
-      </c>
-      <c r="D68" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>47</v>
-      </c>
-      <c r="D69" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>10</v>
-      </c>
-      <c r="C70" t="s">
-        <v>91</v>
+        <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" t="s">
-        <v>26</v>
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" t="s">
-        <v>51</v>
+        <v>2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C74" t="s">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>101</v>
+        <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" t="s">
-        <v>103</v>
+        <v>2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="B77" t="s">
         <v>2</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="B78" t="s">
         <v>2</v>
@@ -2353,12 +2351,12 @@
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="B79" t="s">
         <v>2</v>
@@ -2367,12 +2365,12 @@
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="B80" t="s">
         <v>2</v>
@@ -2381,82 +2379,82 @@
         <v>3</v>
       </c>
       <c r="E80" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="B81" t="s">
         <v>2</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>3</v>
       </c>
       <c r="E81" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
         <v>2</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
         <v>2</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
         <v>2</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>3</v>
       </c>
       <c r="E84" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
         <v>2</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
         <v>2</v>
@@ -2465,54 +2463,54 @@
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
         <v>2</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
         <v>2</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
         <v>2</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>3</v>
       </c>
       <c r="E89" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="B90" t="s">
         <v>2</v>
@@ -2521,169 +2519,169 @@
         <v>3</v>
       </c>
       <c r="E90" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B91" t="s">
         <v>2</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>3</v>
       </c>
       <c r="E91" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="B92" t="s">
         <v>2</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>3</v>
       </c>
       <c r="E92" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="B93" t="s">
         <v>2</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="B94" t="s">
         <v>2</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="B95" t="s">
         <v>2</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>3</v>
       </c>
       <c r="E95" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="B96" t="s">
         <v>2</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>3</v>
       </c>
       <c r="E96" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="B97" t="s">
         <v>2</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>3</v>
       </c>
       <c r="E97" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="B98" t="s">
         <v>2</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>3</v>
       </c>
       <c r="E98" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="B99" t="s">
         <v>2</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="B100" t="s">
         <v>2</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>3</v>
       </c>
       <c r="E100" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B101" t="s">
-        <v>2</v>
-      </c>
-      <c r="C101" t="s">
+        <v>79</v>
+      </c>
+      <c r="D101" t="s">
         <v>3</v>
       </c>
       <c r="E101" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E101">
+  <autoFilter ref="A1:E101" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E101">
-      <sortCondition ref="E2:E101"/>
       <sortCondition ref="B2:B101"/>
       <sortCondition ref="A2:A101"/>
+      <sortCondition ref="E2:E101"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E101">

--- a/May 2019 to Jun 2019 - Cord Cutting Wizard - Change Log.xlsx
+++ b/May 2019 to Jun 2019 - Cord Cutting Wizard - Change Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05894B71-6DFB-4FDA-AB2C-20415C7F1D64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69C80FB-2BD7-4AF7-8CBC-244C1F03EF4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="123">
   <si>
     <t>Comment</t>
   </si>
@@ -367,25 +367,31 @@
     <t>Service</t>
   </si>
   <si>
-    <t>Added a new Alias for this network</t>
-  </si>
-  <si>
-    <t>Added this network to this service in Jun 2019</t>
-  </si>
-  <si>
-    <t>Removed this network from this service in Jun 2019</t>
-  </si>
-  <si>
-    <t>Changed the name of the Add-On Package containing this Network</t>
-  </si>
-  <si>
-    <t>Added this Network as a new Network to the database</t>
-  </si>
-  <si>
     <t>Old Value</t>
   </si>
   <si>
     <t>New Value</t>
+  </si>
+  <si>
+    <t>Alias Changed for Network</t>
+  </si>
+  <si>
+    <t>Network Added to Base Service</t>
+  </si>
+  <si>
+    <t>New Network Added to Database</t>
+  </si>
+  <si>
+    <t>Network Removed from Base Service</t>
+  </si>
+  <si>
+    <t>Name of Add-On Package Changed</t>
+  </si>
+  <si>
+    <t>Network Added to Add-On Package</t>
+  </si>
+  <si>
+    <t>Network Removed from Database</t>
   </si>
 </sst>
 </file>
@@ -1238,7 +1244,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1258,10 +1264,10 @@
         <v>113</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -1278,7 +1284,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -1292,7 +1298,7 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -1306,7 +1312,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -1320,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -1334,7 +1340,7 @@
         <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -1362,7 +1368,7 @@
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -1474,7 +1480,7 @@
         <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
@@ -1488,7 +1494,7 @@
         <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
@@ -1516,7 +1522,7 @@
         <v>103</v>
       </c>
       <c r="E19" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
@@ -1530,7 +1536,7 @@
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
@@ -1544,7 +1550,7 @@
         <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
@@ -1558,7 +1564,7 @@
         <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
@@ -1572,7 +1578,7 @@
         <v>35</v>
       </c>
       <c r="E23" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
@@ -1589,7 +1595,7 @@
         <v>41</v>
       </c>
       <c r="E24" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
@@ -1606,7 +1612,7 @@
         <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
@@ -1623,7 +1629,7 @@
         <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
@@ -1637,7 +1643,7 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
@@ -1651,7 +1657,7 @@
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
@@ -1665,7 +1671,7 @@
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
@@ -1679,7 +1685,7 @@
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
@@ -1693,7 +1699,7 @@
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
@@ -1707,7 +1713,7 @@
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
@@ -1721,7 +1727,7 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
@@ -1735,7 +1741,7 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
@@ -1749,7 +1755,7 @@
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
@@ -1763,7 +1769,7 @@
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
@@ -1777,7 +1783,7 @@
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
@@ -1791,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
@@ -1805,7 +1811,7 @@
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
@@ -1819,7 +1825,7 @@
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
@@ -1833,7 +1839,7 @@
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
@@ -1847,7 +1853,7 @@
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
@@ -1861,7 +1867,7 @@
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
@@ -1875,7 +1881,7 @@
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
@@ -1889,7 +1895,7 @@
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
@@ -1903,7 +1909,7 @@
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
@@ -1917,7 +1923,7 @@
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
@@ -1931,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
@@ -1945,7 +1951,7 @@
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
@@ -1959,7 +1965,7 @@
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
@@ -1973,7 +1979,7 @@
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.4">
@@ -1987,7 +1993,7 @@
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
@@ -2001,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.4">
@@ -2015,7 +2021,7 @@
         <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.4">
@@ -2029,7 +2035,7 @@
         <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.4">
@@ -2043,7 +2049,7 @@
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.4">
@@ -2057,7 +2063,7 @@
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.4">
@@ -2071,7 +2077,7 @@
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.4">
@@ -2085,7 +2091,7 @@
         <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.4">
@@ -2099,7 +2105,7 @@
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.4">
@@ -2113,7 +2119,7 @@
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.4">
@@ -2127,7 +2133,7 @@
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.4">
@@ -2141,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.4">
@@ -2155,7 +2161,7 @@
         <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.4">
@@ -2169,7 +2175,7 @@
         <v>3</v>
       </c>
       <c r="E65" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.4">
@@ -2183,7 +2189,7 @@
         <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.4">
@@ -2197,7 +2203,7 @@
         <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.4">
@@ -2211,7 +2217,7 @@
         <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.4">
@@ -2225,7 +2231,7 @@
         <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.4">
@@ -2239,7 +2245,7 @@
         <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.4">
@@ -2253,7 +2259,7 @@
         <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.4">
@@ -2267,7 +2273,7 @@
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.4">
@@ -2281,7 +2287,7 @@
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.4">
@@ -2295,7 +2301,7 @@
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.4">
@@ -2309,7 +2315,7 @@
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.4">
@@ -2323,7 +2329,7 @@
         <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.4">
@@ -2337,7 +2343,7 @@
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.4">
@@ -2351,7 +2357,7 @@
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.4">
@@ -2365,7 +2371,7 @@
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.4">
@@ -2379,7 +2385,7 @@
         <v>3</v>
       </c>
       <c r="E80" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.4">
@@ -2393,7 +2399,7 @@
         <v>3</v>
       </c>
       <c r="E81" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.4">
@@ -2407,7 +2413,7 @@
         <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.4">
@@ -2421,7 +2427,7 @@
         <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.4">
@@ -2435,7 +2441,7 @@
         <v>3</v>
       </c>
       <c r="E84" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.4">
@@ -2449,7 +2455,7 @@
         <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.4">
@@ -2463,7 +2469,7 @@
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.4">
@@ -2477,7 +2483,7 @@
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.4">
@@ -2491,7 +2497,7 @@
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.4">
@@ -2505,7 +2511,7 @@
         <v>3</v>
       </c>
       <c r="E89" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.4">
@@ -2519,7 +2525,7 @@
         <v>3</v>
       </c>
       <c r="E90" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.4">
@@ -2533,7 +2539,7 @@
         <v>3</v>
       </c>
       <c r="E91" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.4">
@@ -2547,7 +2553,7 @@
         <v>3</v>
       </c>
       <c r="E92" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.4">
@@ -2561,7 +2567,7 @@
         <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.4">
@@ -2575,7 +2581,7 @@
         <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.4">
@@ -2589,7 +2595,7 @@
         <v>3</v>
       </c>
       <c r="E95" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.4">
@@ -2603,7 +2609,7 @@
         <v>3</v>
       </c>
       <c r="E96" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.4">
@@ -2617,7 +2623,7 @@
         <v>3</v>
       </c>
       <c r="E97" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.4">
@@ -2631,7 +2637,7 @@
         <v>3</v>
       </c>
       <c r="E98" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.4">
@@ -2645,7 +2651,7 @@
         <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.4">
@@ -2659,7 +2665,7 @@
         <v>3</v>
       </c>
       <c r="E100" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.4">
@@ -2673,17 +2679,11 @@
         <v>3</v>
       </c>
       <c r="E101" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E101" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E101">
-      <sortCondition ref="B2:B101"/>
-      <sortCondition ref="A2:A101"/>
-      <sortCondition ref="E2:E101"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:E101" xr:uid="{C2C07A79-092C-4832-949F-1EBED8E3BD53}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E101">
     <sortCondition ref="B2:B101"/>
     <sortCondition ref="A2:A101"/>
